--- a/biology/Botanique/Geonoma/Geonoma.xlsx
+++ b/biology/Botanique/Geonoma/Geonoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geonoma est un genre de la famille des Arecaceae (Palmiers) comprenant des espèces natives des Caraïbes, du Mexique, de l'Amérique centrale et de l'Amérique du Sud. L'aire de répartition des 64 espèces s'étend du Mexique et de Haïti au nord, jusqu'au Paraguay dans le sud.
 </t>
@@ -511,19 +523,90 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Geonomateae
-Le genre Geonoma partage sa tribu avec 5 autres genres : Asterogyne, Calyptrogyne, Calyptronoma, Pholidostachys, Welfia  [1].
-Description
-Palmier de taille petite à moyenne, monoïque.
+Le genre Geonoma partage sa tribu avec 5 autres genres : Asterogyne, Calyptrogyne, Calyptronoma, Pholidostachys, Welfia  .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Geonoma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geonoma</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Palmier de taille petite à moyenne, monoïque.
 Le stipe est solitaire ou cespiteux, court et souterrain ou long et aérien. Il est lisse et généralement de couleur brune.
 Les feuilles sont pennées et disposées de manières régulière ou non suivant les espèces.
 L'inflorescence prend naissance entre les feuilles ou parfois sous les feuilles. Elle se ramifie deux ou quatre fois ou parfois pas du tout. Les fleurs sont unisexuées et insérées dans des groupes comprenant une fleur mâle et deux fleurs femelles. Les fleurs possèdent trois pétales et trois sépales. La fleur mâle a six étamines (parfois 3 ou 12) et une petite pistillode. Les fleurs femelles ont également six staminodes, et trois carpelles.
-Les fruits sont petits, allongés ou globuleux, verts devenant noirs ou bleus lorsqu'ils arrivent à maturité.
-Espèces
-Geonoma appuniana Spruce
+Les fruits sont petits, allongés ou globuleux, verts devenant noirs ou bleus lorsqu'ils arrivent à maturité.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geonoma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geonoma</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geonoma appuniana Spruce
 Geonoma arundinacea Mart.
 Geonoma aspidiifolia Spruce
 Geonoma atrovirens Borchs. &amp; Balslev
@@ -587,7 +670,7 @@
 Geonoma undata Klotzsch
 Geonoma weberbaueri Dammer ex Burret
 Geonoma wilsonii Galeano &amp; R.Bernal
-L'espèce Geonoma irena est en danger critique d'extinction[2]. C'est la seule espèce du genre à être menacée.
+L'espèce Geonoma irena est en danger critique d'extinction. C'est la seule espèce du genre à être menacée.
 </t>
         </is>
       </c>
